--- a/TP2/Cuentas y graficos/Graficos/Ejercicio1Capacitor.xlsx
+++ b/TP2/Cuentas y graficos/Graficos/Ejercicio1Capacitor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A94460-0810-4624-99F7-57E01B277B07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A15DBFE-48EC-4637-A0B1-B47D809A6545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
-  <si>
-    <t>-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>modelo C en paralelo con r</t>
   </si>
@@ -47,16 +44,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,9 +73,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,10 +159,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$23</c:f>
+              <c:f>Hoja1!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -222,34 +210,16 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4250</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$23</c:f>
+              <c:f>Hoja1!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10.4</c:v>
                 </c:pt>
@@ -297,24 +267,6 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>56.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>55.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-23.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1374,29 +1326,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1416,7 +1368,7 @@
         <v>89.1</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1672,102 +1624,6 @@
       </c>
       <c r="E17">
         <v>74.900000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>4500</v>
-      </c>
-      <c r="B18">
-        <v>44.5</v>
-      </c>
-      <c r="C18">
-        <v>0.435</v>
-      </c>
-      <c r="D18">
-        <v>547000</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>4700</v>
-      </c>
-      <c r="B19">
-        <v>56.8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1323000</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>4800</v>
-      </c>
-      <c r="B20">
-        <v>55.7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>4900</v>
-      </c>
-      <c r="B21">
-        <v>28.6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>5000</v>
-      </c>
-      <c r="B22">
-        <v>-23.2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>10000</v>
-      </c>
-      <c r="B23">
-        <v>-2.94</v>
-      </c>
-      <c r="C23">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="D23">
-        <v>10000</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-86.8</v>
       </c>
     </row>
   </sheetData>

--- a/TP2/Cuentas y graficos/Graficos/Ejercicio1Capacitor.xlsx
+++ b/TP2/Cuentas y graficos/Graficos/Ejercicio1Capacitor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A15DBFE-48EC-4637-A0B1-B47D809A6545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4821FB64-BD23-4519-A0C3-7D15E3123A01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1329,7 +1329,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1365,7 +1365,7 @@
         <v>0.02</v>
       </c>
       <c r="E2">
-        <v>89.1</v>
+        <v>-89.1</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0.03</v>
       </c>
       <c r="E3">
-        <v>89.2</v>
+        <v>-89.2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1402,7 +1402,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E4">
-        <v>89.2</v>
+        <v>-89.2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1419,7 +1419,7 @@
         <v>0.19</v>
       </c>
       <c r="E5">
-        <v>89.2</v>
+        <v>-89.2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1436,7 +1436,7 @@
         <v>0.49</v>
       </c>
       <c r="E6">
-        <v>89.16</v>
+        <v>-89.16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1453,7 +1453,7 @@
         <v>1.34</v>
       </c>
       <c r="E7">
-        <v>89.13</v>
+        <v>-89.13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1470,7 +1470,7 @@
         <v>3.6</v>
       </c>
       <c r="E8">
-        <v>89.13</v>
+        <v>-89.13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1487,7 +1487,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>89.09</v>
+        <v>-89.09</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1504,7 +1504,7 @@
         <v>29</v>
       </c>
       <c r="E10">
-        <v>89.02</v>
+        <v>-89.02</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1521,7 +1521,7 @@
         <v>84</v>
       </c>
       <c r="E11">
-        <v>88.92</v>
+        <v>-88.92</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1538,7 +1538,7 @@
         <v>248</v>
       </c>
       <c r="E12">
-        <v>88.81</v>
+        <v>-88.81</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1555,7 +1555,7 @@
         <v>780</v>
       </c>
       <c r="E13">
-        <v>88.57</v>
+        <v>-88.57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1572,7 +1572,7 @@
         <v>3300</v>
       </c>
       <c r="E14">
-        <v>87.84</v>
+        <v>-87.84</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1589,7 +1589,7 @@
         <v>74000</v>
       </c>
       <c r="E15">
-        <v>81.400000000000006</v>
+        <v>-81.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1606,7 +1606,7 @@
         <v>127000</v>
       </c>
       <c r="E16">
-        <v>78.900000000000006</v>
+        <v>-78.900000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1623,7 +1623,7 @@
         <v>235000</v>
       </c>
       <c r="E17">
-        <v>74.900000000000006</v>
+        <v>-74.900000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/TP2/Cuentas y graficos/Graficos/Ejercicio1Capacitor.xlsx
+++ b/TP2/Cuentas y graficos/Graficos/Ejercicio1Capacitor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4821FB64-BD23-4519-A0C3-7D15E3123A01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CC2AF7-9011-414F-9BEB-00F1FAEF4835}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,8 +44,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -73,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1326,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1626,6 +1635,55 @@
         <v>-74.900000000000006</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>4500</v>
+      </c>
+      <c r="B18">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>4700</v>
+      </c>
+      <c r="B19">
+        <v>56.8</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>4800</v>
+      </c>
+      <c r="B20">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>4900</v>
+      </c>
+      <c r="B21">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>5000</v>
+      </c>
+      <c r="B22">
+        <v>-23.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10000</v>
+      </c>
+      <c r="B23">
+        <v>-2.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
